--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H2">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I2">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J2">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.32910074573942</v>
+        <v>3.610243</v>
       </c>
       <c r="N2">
-        <v>3.32910074573942</v>
+        <v>10.830729</v>
       </c>
       <c r="O2">
-        <v>0.2371785432963013</v>
+        <v>0.2426871334127641</v>
       </c>
       <c r="P2">
-        <v>0.2371785432963013</v>
+        <v>0.2426871334127641</v>
       </c>
       <c r="Q2">
-        <v>1.542098090261099</v>
+        <v>8.260779927278668</v>
       </c>
       <c r="R2">
-        <v>1.542098090261099</v>
+        <v>74.347019345508</v>
       </c>
       <c r="S2">
-        <v>0.02881841398298732</v>
+        <v>0.09620649555097201</v>
       </c>
       <c r="T2">
-        <v>0.02881841398298732</v>
+        <v>0.09620649555097201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H3">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I3">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J3">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.59775138648792</v>
+        <v>4.620706999999999</v>
       </c>
       <c r="N3">
-        <v>4.59775138648792</v>
+        <v>13.862121</v>
       </c>
       <c r="O3">
-        <v>0.3275623237540528</v>
+        <v>0.3106123704610169</v>
       </c>
       <c r="P3">
-        <v>0.3275623237540528</v>
+        <v>0.3106123704610169</v>
       </c>
       <c r="Q3">
-        <v>2.129759407753685</v>
+        <v>10.57287380252133</v>
       </c>
       <c r="R3">
-        <v>2.129759407753685</v>
+        <v>95.15586422269199</v>
       </c>
       <c r="S3">
-        <v>0.03980050859567288</v>
+        <v>0.1231335473644974</v>
       </c>
       <c r="T3">
-        <v>0.03980050859567288</v>
+        <v>0.1231335473644974</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H4">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I4">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J4">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.4067846116051</v>
+        <v>3.870548333333333</v>
       </c>
       <c r="N4">
-        <v>3.4067846116051</v>
+        <v>11.611645</v>
       </c>
       <c r="O4">
-        <v>0.2427130547307262</v>
+        <v>0.2601853337163782</v>
       </c>
       <c r="P4">
-        <v>0.2427130547307262</v>
+        <v>0.2601853337163782</v>
       </c>
       <c r="Q4">
-        <v>1.57808262492827</v>
+        <v>8.856397749282221</v>
       </c>
       <c r="R4">
-        <v>1.57808262492827</v>
+        <v>79.70757974353999</v>
       </c>
       <c r="S4">
-        <v>0.02949088561340618</v>
+        <v>0.103143165435306</v>
       </c>
       <c r="T4">
-        <v>0.02949088561340618</v>
+        <v>0.103143165435306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H5">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I5">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J5">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.70262766470833</v>
+        <v>2.774622</v>
       </c>
       <c r="N5">
-        <v>2.70262766470833</v>
+        <v>8.323866000000001</v>
       </c>
       <c r="O5">
-        <v>0.1925460782189197</v>
+        <v>0.1865151624098407</v>
       </c>
       <c r="P5">
-        <v>0.1925460782189197</v>
+        <v>0.1865151624098407</v>
       </c>
       <c r="Q5">
-        <v>1.251904727055007</v>
+        <v>6.348753179048001</v>
       </c>
       <c r="R5">
-        <v>1.251904727055007</v>
+        <v>57.138778611432</v>
       </c>
       <c r="S5">
-        <v>0.02339533971241832</v>
+        <v>0.07393869584363964</v>
       </c>
       <c r="T5">
-        <v>0.02339533971241832</v>
+        <v>0.07393869584363963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H6">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I6">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J6">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.32910074573942</v>
+        <v>3.610243</v>
       </c>
       <c r="N6">
-        <v>3.32910074573942</v>
+        <v>10.830729</v>
       </c>
       <c r="O6">
-        <v>0.2371785432963013</v>
+        <v>0.2426871334127641</v>
       </c>
       <c r="P6">
-        <v>0.2371785432963013</v>
+        <v>0.2426871334127641</v>
       </c>
       <c r="Q6">
-        <v>8.402988333792583</v>
+        <v>9.346536441242</v>
       </c>
       <c r="R6">
-        <v>8.402988333792583</v>
+        <v>84.11882797117799</v>
       </c>
       <c r="S6">
-        <v>0.1570333288308828</v>
+        <v>0.1088514068244361</v>
       </c>
       <c r="T6">
-        <v>0.1570333288308828</v>
+        <v>0.1088514068244361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H7">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I7">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J7">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.59775138648792</v>
+        <v>4.620706999999999</v>
       </c>
       <c r="N7">
-        <v>4.59775138648792</v>
+        <v>13.862121</v>
       </c>
       <c r="O7">
-        <v>0.3275623237540528</v>
+        <v>0.3106123704610169</v>
       </c>
       <c r="P7">
-        <v>0.3275623237540528</v>
+        <v>0.3106123704610169</v>
       </c>
       <c r="Q7">
-        <v>11.60519137541317</v>
+        <v>11.962520628058</v>
       </c>
       <c r="R7">
-        <v>11.60519137541317</v>
+        <v>107.662685652522</v>
       </c>
       <c r="S7">
-        <v>0.2168754449023569</v>
+        <v>0.1393176186404959</v>
       </c>
       <c r="T7">
-        <v>0.2168754449023569</v>
+        <v>0.1393176186404959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H8">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I8">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J8">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.4067846116051</v>
+        <v>3.870548333333333</v>
       </c>
       <c r="N8">
-        <v>3.4067846116051</v>
+        <v>11.611645</v>
       </c>
       <c r="O8">
-        <v>0.2427130547307262</v>
+        <v>0.2601853337163782</v>
       </c>
       <c r="P8">
-        <v>0.2427130547307262</v>
+        <v>0.2601853337163782</v>
       </c>
       <c r="Q8">
-        <v>8.599070299599308</v>
+        <v>10.02043935687667</v>
       </c>
       <c r="R8">
-        <v>8.599070299599308</v>
+        <v>90.18395421188998</v>
       </c>
       <c r="S8">
-        <v>0.1606976685385206</v>
+        <v>0.1166997986743025</v>
       </c>
       <c r="T8">
-        <v>0.1606976685385206</v>
+        <v>0.1166997986743025</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H9">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I9">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J9">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.70262766470833</v>
+        <v>2.774622</v>
       </c>
       <c r="N9">
-        <v>2.70262766470833</v>
+        <v>8.323866000000001</v>
       </c>
       <c r="O9">
-        <v>0.1925460782189197</v>
+        <v>0.1865151624098407</v>
       </c>
       <c r="P9">
-        <v>0.1925460782189197</v>
+        <v>0.1865151624098407</v>
       </c>
       <c r="Q9">
-        <v>6.821706662435379</v>
+        <v>7.183202248068</v>
       </c>
       <c r="R9">
-        <v>6.821706662435379</v>
+        <v>64.648820232612</v>
       </c>
       <c r="S9">
-        <v>0.127482660091538</v>
+        <v>0.08365683642514664</v>
       </c>
       <c r="T9">
-        <v>0.127482660091538</v>
+        <v>0.08365683642514664</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H10">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I10">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J10">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.32910074573942</v>
+        <v>3.610243</v>
       </c>
       <c r="N10">
-        <v>3.32910074573942</v>
+        <v>10.830729</v>
       </c>
       <c r="O10">
-        <v>0.2371785432963013</v>
+        <v>0.2426871334127641</v>
       </c>
       <c r="P10">
-        <v>0.2371785432963013</v>
+        <v>0.2426871334127641</v>
       </c>
       <c r="Q10">
-        <v>0.9023918282363701</v>
+        <v>1.127667824950333</v>
       </c>
       <c r="R10">
-        <v>0.9023918282363701</v>
+        <v>10.149010424553</v>
       </c>
       <c r="S10">
-        <v>0.01686371408227177</v>
+        <v>0.01313301777061114</v>
       </c>
       <c r="T10">
-        <v>0.01686371408227177</v>
+        <v>0.01313301777061114</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H11">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I11">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J11">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.59775138648792</v>
+        <v>4.620706999999999</v>
       </c>
       <c r="N11">
-        <v>4.59775138648792</v>
+        <v>13.862121</v>
       </c>
       <c r="O11">
-        <v>0.3275623237540528</v>
+        <v>0.3106123704610169</v>
       </c>
       <c r="P11">
-        <v>0.3275623237540528</v>
+        <v>0.3106123704610169</v>
       </c>
       <c r="Q11">
-        <v>1.246274473591402</v>
+        <v>1.443288613099666</v>
       </c>
       <c r="R11">
-        <v>1.246274473591402</v>
+        <v>12.989597517897</v>
       </c>
       <c r="S11">
-        <v>0.02329012268623301</v>
+        <v>0.01680879296595472</v>
       </c>
       <c r="T11">
-        <v>0.02329012268623301</v>
+        <v>0.01680879296595472</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H12">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I12">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J12">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.4067846116051</v>
+        <v>3.870548333333333</v>
       </c>
       <c r="N12">
-        <v>3.4067846116051</v>
+        <v>11.611645</v>
       </c>
       <c r="O12">
-        <v>0.2427130547307262</v>
+        <v>0.2601853337163782</v>
       </c>
       <c r="P12">
-        <v>0.2427130547307262</v>
+        <v>0.2601853337163782</v>
       </c>
       <c r="Q12">
-        <v>0.9234489517952518</v>
+        <v>1.208974803196111</v>
       </c>
       <c r="R12">
-        <v>0.9234489517952518</v>
+        <v>10.880773228765</v>
       </c>
       <c r="S12">
-        <v>0.01725722530431604</v>
+        <v>0.01407993313571302</v>
       </c>
       <c r="T12">
-        <v>0.01725722530431604</v>
+        <v>0.01407993313571302</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H13">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I13">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J13">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.70262766470833</v>
+        <v>2.774622</v>
       </c>
       <c r="N13">
-        <v>2.70262766470833</v>
+        <v>8.323866000000001</v>
       </c>
       <c r="O13">
-        <v>0.1925460782189197</v>
+        <v>0.1865151624098407</v>
       </c>
       <c r="P13">
-        <v>0.1925460782189197</v>
+        <v>0.1865151624098407</v>
       </c>
       <c r="Q13">
-        <v>0.7325789471885321</v>
+        <v>0.866659655818</v>
       </c>
       <c r="R13">
-        <v>0.7325789471885321</v>
+        <v>7.799936902362</v>
       </c>
       <c r="S13">
-        <v>0.01369028566251943</v>
+        <v>0.01009327073904128</v>
       </c>
       <c r="T13">
-        <v>0.01369028566251943</v>
+        <v>0.01009327073904128</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H14">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I14">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J14">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.32910074573942</v>
+        <v>3.610243</v>
       </c>
       <c r="N14">
-        <v>3.32910074573942</v>
+        <v>10.830729</v>
       </c>
       <c r="O14">
-        <v>0.2371785432963013</v>
+        <v>0.2426871334127641</v>
       </c>
       <c r="P14">
-        <v>0.2371785432963013</v>
+        <v>0.2426871334127641</v>
       </c>
       <c r="Q14">
-        <v>1.844149360667904</v>
+        <v>2.103369691301666</v>
       </c>
       <c r="R14">
-        <v>1.844149360667904</v>
+        <v>18.930327221715</v>
       </c>
       <c r="S14">
-        <v>0.03446308640015939</v>
+        <v>0.02449621326674484</v>
       </c>
       <c r="T14">
-        <v>0.03446308640015939</v>
+        <v>0.02449621326674484</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H15">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I15">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J15">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.59775138648792</v>
+        <v>4.620706999999999</v>
       </c>
       <c r="N15">
-        <v>4.59775138648792</v>
+        <v>13.862121</v>
       </c>
       <c r="O15">
-        <v>0.3275623237540528</v>
+        <v>0.3106123704610169</v>
       </c>
       <c r="P15">
-        <v>0.3275623237540528</v>
+        <v>0.3106123704610169</v>
       </c>
       <c r="Q15">
-        <v>2.546916097613749</v>
+        <v>2.692077806448333</v>
       </c>
       <c r="R15">
-        <v>2.546916097613749</v>
+        <v>24.22870025803499</v>
       </c>
       <c r="S15">
-        <v>0.04759624756978996</v>
+        <v>0.03135241149006888</v>
       </c>
       <c r="T15">
-        <v>0.04759624756978996</v>
+        <v>0.03135241149006888</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H16">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I16">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J16">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.4067846116051</v>
+        <v>3.870548333333333</v>
       </c>
       <c r="N16">
-        <v>3.4067846116051</v>
+        <v>11.611645</v>
       </c>
       <c r="O16">
-        <v>0.2427130547307262</v>
+        <v>0.2601853337163782</v>
       </c>
       <c r="P16">
-        <v>0.2427130547307262</v>
+        <v>0.2601853337163782</v>
       </c>
       <c r="Q16">
-        <v>1.887182198215326</v>
+        <v>2.255026615397222</v>
       </c>
       <c r="R16">
-        <v>1.887182198215326</v>
+        <v>20.295239538575</v>
       </c>
       <c r="S16">
-        <v>0.03526727527448338</v>
+        <v>0.02626243647105669</v>
       </c>
       <c r="T16">
-        <v>0.03526727527448338</v>
+        <v>0.02626243647105669</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H17">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I17">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J17">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.70262766470833</v>
+        <v>2.774622</v>
       </c>
       <c r="N17">
-        <v>2.70262766470833</v>
+        <v>8.323866000000001</v>
       </c>
       <c r="O17">
-        <v>0.1925460782189197</v>
+        <v>0.1865151624098407</v>
       </c>
       <c r="P17">
-        <v>0.1925460782189197</v>
+        <v>0.1865151624098407</v>
       </c>
       <c r="Q17">
-        <v>1.497115726033175</v>
+        <v>1.61652714779</v>
       </c>
       <c r="R17">
-        <v>1.497115726033175</v>
+        <v>14.54874433011</v>
       </c>
       <c r="S17">
-        <v>0.02797779275244398</v>
+        <v>0.01882635940201314</v>
       </c>
       <c r="T17">
-        <v>0.02797779275244398</v>
+        <v>0.01882635940201314</v>
       </c>
     </row>
   </sheetData>
